--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1356.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1356.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167447035769855</v>
+        <v>1.23515522480011</v>
       </c>
       <c r="B1">
-        <v>2.602000115953235</v>
+        <v>2.548962593078613</v>
       </c>
       <c r="C1">
-        <v>4.031239433275791</v>
+        <v>9.146985054016113</v>
       </c>
       <c r="D1">
-        <v>2.752386580901325</v>
+        <v>2.035535097122192</v>
       </c>
       <c r="E1">
-        <v>1.157348452459267</v>
+        <v>1.171088218688965</v>
       </c>
     </row>
   </sheetData>
